--- a/similarities/split_global/harmonic_similarity_timestamps_63.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_63.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:23.040000', '0:00:30.400000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:20.045192', '0:00:25.141972')]</t>
+          <t>('0:01:12.820000', '0:01:24.380000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=23.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>isophonics_232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C', 'G/3']]</t>
+          <t>['G#/C', 'D#', 'G#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:27.476822', '0:00:36.159841')]</t>
+          <t>('0:00:48.600000', '0:00:53')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:06.040000', '0:02:07.580000')]</t>
+          <t>('0:00:18.071496', '0:00:23.725555')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=27.476822']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=48.6</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=126.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=18.071496</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min', 'C:maj', 'F:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C#:min', 'F#:min', 'B', 'E']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:16.724000', '0:02:22.877000')]</t>
+          <t>('0:00:00.340000', '0:00:04.840000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:50.382063', '0:00:53.876666')]</t>
+          <t>('0:00:12.120000', '0:00:17.320000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=136.724']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=50.382063']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:13.460000')]</t>
+          <t>('0:00:01.540000', '0:00:06.680000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.980000', '0:00:21.500000')]</t>
+          <t>('0:00:00.860000', '0:00:05.140000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_43</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:00:41.320000', '0:00:48.940000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:00:19.480000', '0:00:25.860000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:03:46.020000', '0:04:01.060000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:00:20.080000', '0:00:23.800000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=226.02</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=20.08</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:12.094553', '0:00:16.853782')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:50.160000', '0:00:52.820000')]</t>
+          <t>('0:00:03.389127', '0:00:22.035759')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=3.389127</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:40.120000', '0:00:47.880000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:03.129454', '0:00:05.172811')]</t>
+          <t>('0:00:19.980000', '0:00:27.180000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:15.027029', '0:00:22.457415')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=15.027029</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Bb', 'Ab', 'Eb', 'Bb', 'Ab']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'C:maj', 'G/3', 'D:maj', 'C:maj']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:13.520385')]</t>
+          <t>('0:00:12.060000', '0:00:17.060000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:13.890000', '0:01:26.025000')]</t>
+          <t>('0:00:00.680000', '0:00:02.980000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=0.440395']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=73.89']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Eb', 'F', 'Bb'], ['F', 'Eb', 'F'], ['Eb', 'Bb', 'F'], ['F/5', 'Eb/5', 'Bb']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'D:maj', 'G:maj'], ['D:maj', 'C:maj', 'D:maj'], ['C:maj', 'G:maj', 'D:maj'], ['D:maj', 'C:maj', 'G:maj']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:42.305079', '0:00:48.272607'), ('0:00:40.958321', '0:00:47.564399'), ('0:00:29.719863', '0:00:35.722222'), ('0:00:07.324217', '0:00:15.172562')]</t>
+          <t>('0:00:16.720000', '0:00:26.460000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:12.446000', '0:00:16.277000'), ('0:00:33.079000', '0:00:39.093000'), ('0:00:16.277000', '0:00:24.195000'), ('0:01:05.706000', '0:01:08.669000')]</t>
+          <t>('0:00:06.800000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=42.305079', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=40.958321', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=29.719863', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=7.324217']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=16.72</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=33.079', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=16.277', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=65.706']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=6.8</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['G', 'C/5', 'G']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+          <t>('0:00:59.182426', '0:01:04.464965')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:20.432000', '0:00:24.332000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=20.432']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G/3', 'C:maj']]</t>
+          <t>['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>['D:min', 'A:7', 'D:min', 'D:min/A', 'A:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:37.019000', '0:02:40.636000')]</t>
+          <t>('0:00:41.780000', '0:00:50.420000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.040000')]</t>
+          <t>('0:00:14.420000', '0:00:49.560000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=41.78</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=0.78']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=14.42</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>isophonics_13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['Bb:maj', 'Eb:maj', 'F:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>['G', 'C', 'D:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:09.280000', '0:00:11.680000')]</t>
+          <t>('0:04:01.812000', '0:04:15.633000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:07.834297', '0:00:15.380782')]</t>
+          <t>('0:00:48.172947', '0:00:53.606417')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=9.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=241.812</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=7.834297']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-13#t=48.172947</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:55.400000', '0:01:05.220000')]</t>
+          <t>('0:02:03.030000', '0:02:09.120000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:29.500000')]</t>
+          <t>('0:00:33.698526', '0:00:42.916848')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=55.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
